--- a/biology/Zoologie/Hyaenodontidae/Hyaenodontidae.xlsx
+++ b/biology/Zoologie/Hyaenodontidae/Hyaenodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hyaenodontidae (Hyaenodontidés en français) sont une famille éteinte de mammifères placentaires carnivores ; ils sont rattachés à l'ordre des Creodonta. Ils ont vécu du Paléocène au Miocène, tout d'abord en Afrique, avant de coloniser l'Europe et l'Asie et enfin l'Amérique du Nord[1], [2].
-Les Hyaenodontidae (« dents de hyènes ») sont une famille importante de mammifères carnivores de l'ère Tertiaire, la plus connue de l'ordre des créodontes. Deux autres familles sont rattachées à cet ordre, les Oxyaenidae et, depuis 2015, les Hyainailouridae qui n'étaient auparavant qu'une sous-famille (Hyainailourinae) de Hyaenodontidae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hyaenodontidae (Hyaenodontidés en français) sont une famille éteinte de mammifères placentaires carnivores ; ils sont rattachés à l'ordre des Creodonta. Ils ont vécu du Paléocène au Miocène, tout d'abord en Afrique, avant de coloniser l'Europe et l'Asie et enfin l'Amérique du Nord, .
+Les Hyaenodontidae (« dents de hyènes ») sont une famille importante de mammifères carnivores de l'ère Tertiaire, la plus connue de l'ordre des créodontes. Deux autres familles sont rattachées à cet ordre, les Oxyaenidae et, depuis 2015, les Hyainailouridae qui n'étaient auparavant qu'une sous-famille (Hyainailourinae) de Hyaenodontidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se caractérisent par une mâchoire allongée comme celles des hyènes de l'époque contemporaine (avec cependant une denture différente). Ce sont les plus gros représentants des créodontes. Le plus connu des Hyaenodontidae est Hyaenodon, qui pouvait atteindre deux mètres de haut et dont les fossiles sont communs partout dans le monde.
 </t>
@@ -543,10 +557,12 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ordre Creodonta (créodontes) :
-Famille Hyaenodontidae[4]
+Famille Hyaenodontidae
 Sous-famille Hyaenodontinae
 Genre Hyaenodon
 Genre Isohyaenodon
